--- a/ISRaD_data_files/Shen_2001.xlsx
+++ b/ISRaD_data_files/Shen_2001.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20378"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfromm\Documents\GitHub\ISRaD\ISRaD_data_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D70219D-2F9D-4F26-A7D9-B523F8D5EECD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="16056" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="994">
   <si>
     <t>entry_name</t>
   </si>
@@ -3002,9 +3008,6 @@
   </si>
   <si>
     <t>Reported as "modern"</t>
-  </si>
-  <si>
-    <t>Inf</t>
   </si>
   <si>
     <t>frc_fraction_modern</t>
@@ -3019,7 +3022,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3141,19 +3144,27 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_layer" xfId="3"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal_layer" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3435,14 +3446,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3492,7 +3503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3539,7 +3550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3577,7 +3588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3630,14 +3641,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3660,7 +3671,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3683,7 +3694,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3700,7 +3711,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3717,7 +3728,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -3734,7 +3745,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -3763,14 +3774,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3880,7 +3891,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3990,7 +4001,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4085,7 +4096,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -4111,7 +4122,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -4140,7 +4151,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -4181,14 +4192,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4301,7 +4312,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4411,7 +4422,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4503,16 +4514,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CT44"/>
   <sheetViews>
-    <sheetView topLeftCell="AY2" workbookViewId="0">
-      <selection activeCell="BD11" sqref="BD4:BD11"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="BC1" sqref="BC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:98">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4808,7 +4819,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:98">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5104,7 +5115,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:98">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5343,7 +5354,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="4" spans="1:98">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -5374,11 +5385,8 @@
       <c r="AO4" t="s">
         <v>459</v>
       </c>
-      <c r="BC4" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:98">
+    </row>
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -5409,11 +5417,8 @@
       <c r="AO5" t="s">
         <v>462</v>
       </c>
-      <c r="BC5" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:98">
+    </row>
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -5444,11 +5449,8 @@
       <c r="AO6" t="s">
         <v>464</v>
       </c>
-      <c r="BC6" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:98">
+    </row>
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -5479,11 +5481,8 @@
       <c r="AO7" t="s">
         <v>466</v>
       </c>
-      <c r="BC7" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:98">
+    </row>
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -5514,11 +5513,8 @@
       <c r="AO8" t="s">
         <v>468</v>
       </c>
-      <c r="BC8" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:98">
+    </row>
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -5549,11 +5545,8 @@
       <c r="AO9" t="s">
         <v>470</v>
       </c>
-      <c r="BC9" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:98">
+    </row>
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -5584,11 +5577,8 @@
       <c r="AO10" t="s">
         <v>474</v>
       </c>
-      <c r="BC10" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:98">
+    </row>
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -5619,11 +5609,8 @@
       <c r="AO11" t="s">
         <v>477</v>
       </c>
-      <c r="BC11" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="12" spans="1:98">
+    </row>
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -5658,7 +5645,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:98">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -5693,7 +5680,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:98">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -5728,7 +5715,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:98">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -5763,7 +5750,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:98">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -5798,7 +5785,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:56">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -5833,7 +5820,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:56">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -5868,7 +5855,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:56">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -5903,7 +5890,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:56">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -5938,7 +5925,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:56">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -5973,7 +5960,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:56">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -6008,7 +5995,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:56">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -6043,7 +6030,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:56">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -6078,7 +6065,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:56">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -6113,7 +6100,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:56">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -6148,7 +6135,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:56">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -6183,7 +6170,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:56">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -6218,7 +6205,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:56">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -6253,7 +6240,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:56">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -6288,7 +6275,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:56">
+    <row r="31" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -6323,7 +6310,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:56">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -6358,7 +6345,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:56">
+    <row r="33" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -6393,7 +6380,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:56">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -6428,7 +6415,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:56">
+    <row r="35" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -6463,7 +6450,7 @@
         <v>9.0000000000000011E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:56">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -6498,7 +6485,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:56">
+    <row r="37" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -6533,7 +6520,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:56">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -6568,7 +6555,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:56">
+    <row r="39" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -6603,7 +6590,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="40" spans="1:56">
+    <row r="40" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -6638,7 +6625,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:56">
+    <row r="41" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -6673,7 +6660,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:56">
+    <row r="42" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -6708,7 +6695,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:56">
+    <row r="43" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -6743,7 +6730,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:56">
+    <row r="44" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -6790,14 +6777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6883,7 +6870,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6966,7 +6953,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -7025,16 +7012,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AI1" sqref="AI1:AK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:73" ht="52">
+    <row r="1" spans="1:73" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7138,13 +7125,13 @@
         <v>633</v>
       </c>
       <c r="AI1" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="4" t="s">
         <v>993</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>994</v>
       </c>
       <c r="AL1" t="s">
         <v>634</v>
@@ -7255,7 +7242,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="2" spans="1:73">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7473,7 +7460,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:73">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -7652,14 +7639,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7751,7 +7738,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7834,7 +7821,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -7893,14 +7880,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AR21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>749</v>
       </c>
@@ -8034,7 +8021,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -8168,7 +8155,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
         <v>795</v>
       </c>
@@ -8191,7 +8178,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>800</v>
       </c>
@@ -8325,7 +8312,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>833</v>
       </c>
@@ -8438,7 +8425,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>866</v>
       </c>
@@ -8539,7 +8526,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>892</v>
       </c>
@@ -8613,7 +8600,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>913</v>
       </c>
@@ -8681,7 +8668,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>930</v>
       </c>
@@ -8734,7 +8721,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>946</v>
       </c>
@@ -8766,7 +8753,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>956</v>
       </c>
@@ -8792,7 +8779,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>963</v>
       </c>
@@ -8809,7 +8796,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U13" t="s">
         <v>968</v>
       </c>
@@ -8823,7 +8810,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U14" t="s">
         <v>972</v>
       </c>
@@ -8834,7 +8821,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U15" t="s">
         <v>975</v>
       </c>
@@ -8845,7 +8832,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U16" t="s">
         <v>978</v>
       </c>
@@ -8856,7 +8843,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="17" spans="40:41">
+    <row r="17" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN17" t="s">
         <v>981</v>
       </c>
@@ -8864,7 +8851,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="18" spans="40:41">
+    <row r="18" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN18" t="s">
         <v>983</v>
       </c>
@@ -8872,7 +8859,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="19" spans="40:41">
+    <row r="19" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN19" t="s">
         <v>985</v>
       </c>
@@ -8880,7 +8867,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="20" spans="40:41">
+    <row r="20" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN20" t="s">
         <v>987</v>
       </c>
@@ -8888,7 +8875,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="21" spans="40:41">
+    <row r="21" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN21" t="s">
         <v>989</v>
       </c>

--- a/ISRaD_data_files/Shen_2001.xlsx
+++ b/ISRaD_data_files/Shen_2001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20384"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfromm\Documents\GitHub\ISRaD\ISRaD_data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D70219D-2F9D-4F26-A7D9-B523F8D5EECD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D35671-D26B-4160-82E3-3F663ECE8CDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="16056" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="16056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="incubation" sheetId="8" r:id="rId8"/>
     <sheet name="controlled vocabulary" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="1006">
   <si>
     <t>entry_name</t>
   </si>
@@ -549,9 +549,6 @@
     <t>control</t>
   </si>
   <si>
-    <t>Ox</t>
-  </si>
-  <si>
     <t>USDA</t>
   </si>
   <si>
@@ -3017,6 +3014,45 @@
   </si>
   <si>
     <t>frc_fraction_modern_sd</t>
+  </si>
+  <si>
+    <t>pro_usda_soil_order</t>
+  </si>
+  <si>
+    <t>Alfisols</t>
+  </si>
+  <si>
+    <t>Andisols</t>
+  </si>
+  <si>
+    <t>Aridisols</t>
+  </si>
+  <si>
+    <t>Entisols</t>
+  </si>
+  <si>
+    <t>Gelisols</t>
+  </si>
+  <si>
+    <t>Histosols</t>
+  </si>
+  <si>
+    <t>Inceptisols</t>
+  </si>
+  <si>
+    <t>Mollisols</t>
+  </si>
+  <si>
+    <t>Oxisols</t>
+  </si>
+  <si>
+    <t>Spodosols</t>
+  </si>
+  <si>
+    <t>Ultisols</t>
+  </si>
+  <si>
+    <t>Vertisols</t>
   </si>
 </sst>
 </file>
@@ -3144,16 +3180,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_layer" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3449,9 +3485,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3646,7 +3684,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3775,13 +3813,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3822,76 +3862,79 @@
         <v>92</v>
       </c>
       <c r="N1" t="s">
+        <v>993</v>
+      </c>
+      <c r="O1" t="s">
         <v>93</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>94</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>96</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>97</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>98</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>99</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>100</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>101</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>102</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>103</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>104</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>105</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>106</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>107</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>108</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>109</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>110</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>111</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>112</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>113</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>114</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3931,77 +3974,77 @@
       <c r="M2" t="s">
         <v>124</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>125</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>126</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>127</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>128</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>129</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>130</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>131</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>132</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>133</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>134</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>135</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>136</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>137</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>138</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>139</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>140</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>141</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>142</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>143</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>144</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>145</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>146</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4029,29 +4072,26 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>153</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>155</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>152</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>156</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>157</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>158</v>
-      </c>
-      <c r="V3" t="s">
-        <v>159</v>
       </c>
       <c r="W3" t="s">
         <v>159</v>
@@ -4060,43 +4100,46 @@
         <v>159</v>
       </c>
       <c r="Y3" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z3" t="s">
         <v>160</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>161</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>162</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>163</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>164</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>165</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>156</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>166</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>167</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>168</v>
       </c>
       <c r="AI3" t="s">
         <v>168</v>
       </c>
       <c r="AJ3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -4110,19 +4153,19 @@
         <v>170</v>
       </c>
       <c r="N4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="Q4" t="s">
         <v>171</v>
       </c>
-      <c r="P4" t="s">
+      <c r="U4" t="s">
         <v>172</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>173</v>
       </c>
-      <c r="U4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -4130,28 +4173,28 @@
         <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H5" t="s">
         <v>170</v>
       </c>
       <c r="N5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="Q5" t="s">
         <v>171</v>
       </c>
-      <c r="P5" t="s">
+      <c r="U5" t="s">
         <v>172</v>
       </c>
-      <c r="T5" t="s">
-        <v>173</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF5" t="s">
         <v>176</v>
       </c>
-      <c r="AE5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -4159,31 +4202,41 @@
         <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H6" t="s">
         <v>170</v>
       </c>
       <c r="N6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="Q6" t="s">
         <v>171</v>
       </c>
-      <c r="P6" t="s">
+      <c r="U6" t="s">
         <v>172</v>
       </c>
-      <c r="T6" t="s">
-        <v>173</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF6" t="s">
         <v>179</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{826C6EE5-60D2-46F3-BE95-7BC2DFEF6ADF}">
+          <x14:formula1>
+            <xm:f>'controlled vocabulary'!$E$4:$E$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>N4:N1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -4197,7 +4250,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -4213,103 +4266,103 @@
         <v>83</v>
       </c>
       <c r="E1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" t="s">
         <v>181</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>182</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>183</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>184</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>185</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>186</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>187</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>188</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>189</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>190</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>191</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>192</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>193</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>194</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>195</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>196</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>197</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>198</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>199</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>200</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>201</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>202</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>203</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>204</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>205</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>206</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>207</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>208</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>209</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>210</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>211</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>212</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
@@ -4323,103 +4376,103 @@
         <v>116</v>
       </c>
       <c r="D2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" t="s">
         <v>214</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>215</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>216</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>217</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>218</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>219</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>220</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>221</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>222</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>223</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>224</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>225</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>226</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>227</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>228</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>229</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>230</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>231</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>232</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>233</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>234</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>235</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>236</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>237</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>238</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>239</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>240</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>241</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>242</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>243</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>244</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>245</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
@@ -4442,25 +4495,25 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L3" t="s">
         <v>247</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>248</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>249</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>250</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>251</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>252</v>
-      </c>
-      <c r="R3" t="s">
-        <v>253</v>
       </c>
       <c r="S3" t="s">
         <v>150</v>
@@ -4469,7 +4522,7 @@
         <v>150</v>
       </c>
       <c r="U3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="V3" t="s">
         <v>156</v>
@@ -4478,28 +4531,28 @@
         <v>156</v>
       </c>
       <c r="Z3" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA3" t="s">
         <v>255</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC3" t="s">
         <v>256</v>
       </c>
-      <c r="AB3" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>257</v>
       </c>
-      <c r="AE3" t="s">
-        <v>258</v>
-      </c>
       <c r="AF3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4517,11 +4570,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CT44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+    <sheetView topLeftCell="AP1" workbookViewId="0">
       <selection activeCell="BC1" sqref="BC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -4534,289 +4587,289 @@
         <v>83</v>
       </c>
       <c r="D1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" t="s">
         <v>259</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>260</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>261</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>262</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>263</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>264</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>265</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>266</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>267</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>268</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>269</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>270</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>271</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>272</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>273</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>274</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>275</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>276</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>277</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>278</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>279</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>280</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>281</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>282</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>283</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>284</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>285</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>286</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>287</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>288</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>289</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>290</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>291</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>292</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>293</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>294</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>295</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>296</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>297</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>298</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>299</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>300</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>301</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>302</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>303</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>304</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>305</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>306</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>307</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>308</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>309</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>310</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>311</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>312</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>313</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>314</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>315</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>316</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>317</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>318</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>319</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>320</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>321</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>322</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>323</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>324</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>325</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>326</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>327</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>328</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>329</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>330</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>331</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>332</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>333</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>334</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>335</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>336</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>337</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>338</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>339</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>340</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>341</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>342</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>343</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>344</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>345</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>346</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>347</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>348</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>349</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>350</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>351</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>352</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:98" x14ac:dyDescent="0.3">
@@ -4830,289 +4883,289 @@
         <v>117</v>
       </c>
       <c r="D2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H2" t="s">
         <v>354</v>
       </c>
-      <c r="E2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>355</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>356</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>357</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>358</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>359</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>360</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>361</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>362</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>363</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>364</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>365</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>366</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>367</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>368</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>369</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>370</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>371</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>372</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>373</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>374</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>375</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>376</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>377</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>378</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>379</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>380</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>381</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>382</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>383</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>384</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>385</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>386</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>387</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>388</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>389</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>390</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>391</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>392</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>393</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>394</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>395</v>
       </c>
-      <c r="AW2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>396</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>397</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>398</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>399</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>400</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>401</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>402</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>403</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>404</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>405</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>406</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>407</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>408</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>409</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>410</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>411</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>412</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
         <v>413</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
         <v>414</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
         <v>415</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BU2" t="s">
         <v>416</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BV2" t="s">
         <v>417</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
         <v>418</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BX2" t="s">
         <v>419</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BY2" t="s">
         <v>420</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="BZ2" t="s">
         <v>421</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CA2" t="s">
         <v>422</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CB2" t="s">
         <v>423</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CC2" t="s">
         <v>424</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CD2" t="s">
         <v>425</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CE2" t="s">
         <v>426</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CF2" t="s">
         <v>427</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CG2" t="s">
         <v>428</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
         <v>429</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>430</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
         <v>431</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CK2" t="s">
         <v>432</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CL2" t="s">
         <v>433</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CM2" t="s">
         <v>434</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CN2" t="s">
         <v>435</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CO2" t="s">
         <v>436</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CP2" t="s">
         <v>437</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CQ2" t="s">
         <v>438</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CR2" t="s">
         <v>439</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CS2" t="s">
         <v>440</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CT2" t="s">
         <v>441</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
@@ -5141,13 +5194,13 @@
         <v>150</v>
       </c>
       <c r="O3" t="s">
+        <v>442</v>
+      </c>
+      <c r="P3" t="s">
         <v>443</v>
       </c>
-      <c r="P3" t="s">
-        <v>444</v>
-      </c>
       <c r="Q3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="S3" t="s">
         <v>156</v>
@@ -5165,34 +5218,34 @@
         <v>36</v>
       </c>
       <c r="X3" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC3" t="s">
         <v>445</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>446</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>447</v>
       </c>
-      <c r="AE3" t="s">
-        <v>448</v>
-      </c>
       <c r="AF3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AH3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AI3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AJ3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AK3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AL3" t="s">
         <v>156</v>
@@ -5216,142 +5269,142 @@
         <v>156</v>
       </c>
       <c r="AS3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AT3" t="s">
         <v>156</v>
       </c>
       <c r="AU3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AW3" t="s">
         <v>256</v>
       </c>
-      <c r="AV3" t="s">
-        <v>256</v>
-      </c>
-      <c r="AW3" t="s">
+      <c r="AY3" t="s">
         <v>257</v>
       </c>
-      <c r="AY3" t="s">
-        <v>258</v>
-      </c>
       <c r="AZ3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BA3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BB3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BE3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BF3" t="s">
+        <v>449</v>
+      </c>
+      <c r="BG3" t="s">
         <v>450</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BH3" t="s">
+        <v>450</v>
+      </c>
+      <c r="BL3" t="s">
         <v>451</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BM3" t="s">
         <v>451</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BN3" t="s">
+        <v>451</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>451</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>451</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>451</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>451</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>451</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>451</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>451</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>451</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>451</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>451</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>451</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>451</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>451</v>
+      </c>
+      <c r="CE3" t="s">
         <v>452</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="CF3" t="s">
         <v>452</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="CG3" t="s">
         <v>452</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="CH3" t="s">
         <v>452</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="CI3" t="s">
         <v>452</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="CJ3" t="s">
         <v>452</v>
       </c>
-      <c r="BS3" t="s">
+      <c r="CK3" t="s">
         <v>452</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="CL3" t="s">
         <v>452</v>
       </c>
-      <c r="BV3" t="s">
+      <c r="CM3" t="s">
         <v>452</v>
       </c>
-      <c r="BW3" t="s">
+      <c r="CN3" t="s">
         <v>452</v>
       </c>
-      <c r="BX3" t="s">
+      <c r="CO3" t="s">
         <v>452</v>
       </c>
-      <c r="BY3" t="s">
+      <c r="CP3" t="s">
         <v>452</v>
       </c>
-      <c r="BZ3" t="s">
+      <c r="CQ3" t="s">
         <v>452</v>
       </c>
-      <c r="CA3" t="s">
+      <c r="CR3" t="s">
         <v>452</v>
       </c>
-      <c r="CB3" t="s">
+      <c r="CS3" t="s">
         <v>452</v>
       </c>
-      <c r="CC3" t="s">
+      <c r="CT3" t="s">
         <v>452</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>452</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>453</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>453</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>453</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>453</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>453</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>453</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>453</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>453</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>453</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>453</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>453</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>453</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>453</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>453</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>453</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
@@ -5365,25 +5418,25 @@
         <v>169</v>
       </c>
       <c r="D4" t="s">
+        <v>453</v>
+      </c>
+      <c r="E4" t="s">
         <v>454</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>455</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>456</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>457</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
+        <v>989</v>
+      </c>
+      <c r="AO4" t="s">
         <v>458</v>
-      </c>
-      <c r="M4" t="s">
-        <v>990</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:98" x14ac:dyDescent="0.3">
@@ -5397,25 +5450,25 @@
         <v>169</v>
       </c>
       <c r="D5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E5" t="s">
+        <v>454</v>
+      </c>
+      <c r="I5" t="s">
+        <v>456</v>
+      </c>
+      <c r="J5" t="s">
         <v>460</v>
       </c>
-      <c r="E5" t="s">
-        <v>455</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>457</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AO5" t="s">
         <v>461</v>
-      </c>
-      <c r="K5" t="s">
-        <v>458</v>
-      </c>
-      <c r="M5" t="s">
-        <v>990</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:98" x14ac:dyDescent="0.3">
@@ -5426,28 +5479,28 @@
         <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
+        <v>462</v>
+      </c>
+      <c r="E6" t="s">
+        <v>454</v>
+      </c>
+      <c r="I6" t="s">
+        <v>455</v>
+      </c>
+      <c r="J6" t="s">
+        <v>456</v>
+      </c>
+      <c r="K6" t="s">
+        <v>457</v>
+      </c>
+      <c r="M6" t="s">
+        <v>989</v>
+      </c>
+      <c r="AO6" t="s">
         <v>463</v>
-      </c>
-      <c r="E6" t="s">
-        <v>455</v>
-      </c>
-      <c r="I6" t="s">
-        <v>456</v>
-      </c>
-      <c r="J6" t="s">
-        <v>457</v>
-      </c>
-      <c r="K6" t="s">
-        <v>458</v>
-      </c>
-      <c r="M6" t="s">
-        <v>990</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:98" x14ac:dyDescent="0.3">
@@ -5458,28 +5511,28 @@
         <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" t="s">
+        <v>464</v>
+      </c>
+      <c r="E7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I7" t="s">
+        <v>456</v>
+      </c>
+      <c r="J7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K7" t="s">
+        <v>457</v>
+      </c>
+      <c r="M7" t="s">
+        <v>989</v>
+      </c>
+      <c r="AO7" t="s">
         <v>465</v>
-      </c>
-      <c r="E7" t="s">
-        <v>455</v>
-      </c>
-      <c r="I7" t="s">
-        <v>457</v>
-      </c>
-      <c r="J7" t="s">
-        <v>461</v>
-      </c>
-      <c r="K7" t="s">
-        <v>458</v>
-      </c>
-      <c r="M7" t="s">
-        <v>990</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:98" x14ac:dyDescent="0.3">
@@ -5490,28 +5543,28 @@
         <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
+        <v>466</v>
+      </c>
+      <c r="E8" t="s">
+        <v>454</v>
+      </c>
+      <c r="I8" t="s">
+        <v>455</v>
+      </c>
+      <c r="J8" t="s">
+        <v>456</v>
+      </c>
+      <c r="K8" t="s">
+        <v>457</v>
+      </c>
+      <c r="M8" t="s">
+        <v>989</v>
+      </c>
+      <c r="AO8" t="s">
         <v>467</v>
-      </c>
-      <c r="E8" t="s">
-        <v>455</v>
-      </c>
-      <c r="I8" t="s">
-        <v>456</v>
-      </c>
-      <c r="J8" t="s">
-        <v>457</v>
-      </c>
-      <c r="K8" t="s">
-        <v>458</v>
-      </c>
-      <c r="M8" t="s">
-        <v>990</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:98" x14ac:dyDescent="0.3">
@@ -5522,28 +5575,28 @@
         <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
+        <v>468</v>
+      </c>
+      <c r="E9" t="s">
+        <v>454</v>
+      </c>
+      <c r="I9" t="s">
+        <v>456</v>
+      </c>
+      <c r="J9" t="s">
+        <v>460</v>
+      </c>
+      <c r="K9" t="s">
+        <v>457</v>
+      </c>
+      <c r="M9" t="s">
+        <v>989</v>
+      </c>
+      <c r="AO9" t="s">
         <v>469</v>
-      </c>
-      <c r="E9" t="s">
-        <v>455</v>
-      </c>
-      <c r="I9" t="s">
-        <v>457</v>
-      </c>
-      <c r="J9" t="s">
-        <v>461</v>
-      </c>
-      <c r="K9" t="s">
-        <v>458</v>
-      </c>
-      <c r="M9" t="s">
-        <v>990</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.3">
@@ -5554,28 +5607,28 @@
         <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
+        <v>470</v>
+      </c>
+      <c r="E10" t="s">
+        <v>454</v>
+      </c>
+      <c r="I10" t="s">
+        <v>460</v>
+      </c>
+      <c r="J10" t="s">
         <v>471</v>
       </c>
-      <c r="E10" t="s">
-        <v>455</v>
-      </c>
-      <c r="I10" t="s">
-        <v>461</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>472</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
+        <v>989</v>
+      </c>
+      <c r="AO10" t="s">
         <v>473</v>
-      </c>
-      <c r="M10" t="s">
-        <v>990</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:98" x14ac:dyDescent="0.3">
@@ -5586,28 +5639,28 @@
         <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
+        <v>474</v>
+      </c>
+      <c r="E11" t="s">
+        <v>454</v>
+      </c>
+      <c r="I11" t="s">
+        <v>471</v>
+      </c>
+      <c r="J11" t="s">
         <v>475</v>
       </c>
-      <c r="E11" t="s">
-        <v>455</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>472</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="s">
+        <v>989</v>
+      </c>
+      <c r="AO11" t="s">
         <v>476</v>
-      </c>
-      <c r="K11" t="s">
-        <v>473</v>
-      </c>
-      <c r="M11" t="s">
-        <v>990</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:98" x14ac:dyDescent="0.3">
@@ -5621,22 +5674,22 @@
         <v>169</v>
       </c>
       <c r="D12" t="s">
+        <v>477</v>
+      </c>
+      <c r="E12" t="s">
+        <v>454</v>
+      </c>
+      <c r="I12" t="s">
+        <v>460</v>
+      </c>
+      <c r="J12" t="s">
+        <v>475</v>
+      </c>
+      <c r="K12" t="s">
+        <v>472</v>
+      </c>
+      <c r="AO12" t="s">
         <v>478</v>
-      </c>
-      <c r="E12" t="s">
-        <v>455</v>
-      </c>
-      <c r="I12" t="s">
-        <v>461</v>
-      </c>
-      <c r="J12" t="s">
-        <v>476</v>
-      </c>
-      <c r="K12" t="s">
-        <v>473</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>479</v>
       </c>
       <c r="BC12" s="1">
         <v>0.94900000000000007</v>
@@ -5653,25 +5706,25 @@
         <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
+        <v>479</v>
+      </c>
+      <c r="E13" t="s">
+        <v>454</v>
+      </c>
+      <c r="I13" t="s">
+        <v>475</v>
+      </c>
+      <c r="J13" t="s">
         <v>480</v>
       </c>
-      <c r="E13" t="s">
-        <v>455</v>
-      </c>
-      <c r="I13" t="s">
-        <v>476</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>472</v>
+      </c>
+      <c r="AO13" t="s">
         <v>481</v>
-      </c>
-      <c r="K13" t="s">
-        <v>473</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>482</v>
       </c>
       <c r="BC13" s="1">
         <v>0.94099999999999995</v>
@@ -5688,25 +5741,25 @@
         <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
+        <v>482</v>
+      </c>
+      <c r="E14" t="s">
+        <v>454</v>
+      </c>
+      <c r="I14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J14" t="s">
+        <v>475</v>
+      </c>
+      <c r="K14" t="s">
+        <v>457</v>
+      </c>
+      <c r="AO14" t="s">
         <v>483</v>
-      </c>
-      <c r="E14" t="s">
-        <v>455</v>
-      </c>
-      <c r="I14" t="s">
-        <v>472</v>
-      </c>
-      <c r="J14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K14" t="s">
-        <v>458</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>484</v>
       </c>
       <c r="BC14" s="1">
         <v>0.93599999999999994</v>
@@ -5723,25 +5776,25 @@
         <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
+        <v>484</v>
+      </c>
+      <c r="E15" t="s">
+        <v>454</v>
+      </c>
+      <c r="I15" t="s">
+        <v>460</v>
+      </c>
+      <c r="J15" t="s">
+        <v>471</v>
+      </c>
+      <c r="K15" t="s">
+        <v>457</v>
+      </c>
+      <c r="AO15" t="s">
         <v>485</v>
-      </c>
-      <c r="E15" t="s">
-        <v>455</v>
-      </c>
-      <c r="I15" t="s">
-        <v>461</v>
-      </c>
-      <c r="J15" t="s">
-        <v>472</v>
-      </c>
-      <c r="K15" t="s">
-        <v>458</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>486</v>
       </c>
       <c r="BC15" s="1">
         <v>0.90500000000000003</v>
@@ -5758,25 +5811,25 @@
         <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
+        <v>486</v>
+      </c>
+      <c r="E16" t="s">
+        <v>454</v>
+      </c>
+      <c r="I16" t="s">
         <v>487</v>
       </c>
-      <c r="E16" t="s">
-        <v>455</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
+        <v>480</v>
+      </c>
+      <c r="K16" t="s">
+        <v>472</v>
+      </c>
+      <c r="AO16" t="s">
         <v>488</v>
-      </c>
-      <c r="J16" t="s">
-        <v>481</v>
-      </c>
-      <c r="K16" t="s">
-        <v>473</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>489</v>
       </c>
       <c r="BC16" s="1">
         <v>0.90500000000000003</v>
@@ -5793,25 +5846,25 @@
         <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
+        <v>489</v>
+      </c>
+      <c r="E17" t="s">
+        <v>454</v>
+      </c>
+      <c r="I17" t="s">
+        <v>475</v>
+      </c>
+      <c r="J17" t="s">
+        <v>487</v>
+      </c>
+      <c r="K17" t="s">
+        <v>472</v>
+      </c>
+      <c r="AO17" t="s">
         <v>490</v>
-      </c>
-      <c r="E17" t="s">
-        <v>455</v>
-      </c>
-      <c r="I17" t="s">
-        <v>476</v>
-      </c>
-      <c r="J17" t="s">
-        <v>488</v>
-      </c>
-      <c r="K17" t="s">
-        <v>473</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>491</v>
       </c>
       <c r="BC17" s="1">
         <v>0.89800000000000002</v>
@@ -5831,22 +5884,22 @@
         <v>169</v>
       </c>
       <c r="D18" t="s">
+        <v>491</v>
+      </c>
+      <c r="E18" t="s">
+        <v>454</v>
+      </c>
+      <c r="I18" t="s">
+        <v>475</v>
+      </c>
+      <c r="J18" t="s">
+        <v>480</v>
+      </c>
+      <c r="K18" t="s">
+        <v>472</v>
+      </c>
+      <c r="AO18" t="s">
         <v>492</v>
-      </c>
-      <c r="E18" t="s">
-        <v>455</v>
-      </c>
-      <c r="I18" t="s">
-        <v>476</v>
-      </c>
-      <c r="J18" t="s">
-        <v>481</v>
-      </c>
-      <c r="K18" t="s">
-        <v>473</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>493</v>
       </c>
       <c r="BC18" s="1">
         <v>0.88</v>
@@ -5866,22 +5919,22 @@
         <v>169</v>
       </c>
       <c r="D19" t="s">
+        <v>493</v>
+      </c>
+      <c r="E19" t="s">
+        <v>454</v>
+      </c>
+      <c r="I19" t="s">
         <v>494</v>
       </c>
-      <c r="E19" t="s">
-        <v>455</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>495</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>496</v>
       </c>
-      <c r="K19" t="s">
+      <c r="AO19" t="s">
         <v>497</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>498</v>
       </c>
       <c r="BC19" s="1">
         <v>0.8640000000000001</v>
@@ -5898,25 +5951,25 @@
         <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E20" t="s">
+        <v>454</v>
+      </c>
+      <c r="I20" t="s">
+        <v>480</v>
+      </c>
+      <c r="J20" t="s">
         <v>499</v>
       </c>
-      <c r="E20" t="s">
-        <v>455</v>
-      </c>
-      <c r="I20" t="s">
-        <v>481</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
+        <v>472</v>
+      </c>
+      <c r="AO20" t="s">
         <v>500</v>
-      </c>
-      <c r="K20" t="s">
-        <v>473</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>501</v>
       </c>
       <c r="BC20" s="1">
         <v>0.85499999999999998</v>
@@ -5933,25 +5986,25 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D21" t="s">
+        <v>501</v>
+      </c>
+      <c r="E21" t="s">
+        <v>454</v>
+      </c>
+      <c r="I21" t="s">
+        <v>499</v>
+      </c>
+      <c r="J21" t="s">
+        <v>494</v>
+      </c>
+      <c r="K21" t="s">
+        <v>472</v>
+      </c>
+      <c r="AO21" t="s">
         <v>502</v>
-      </c>
-      <c r="E21" t="s">
-        <v>455</v>
-      </c>
-      <c r="I21" t="s">
-        <v>500</v>
-      </c>
-      <c r="J21" t="s">
-        <v>495</v>
-      </c>
-      <c r="K21" t="s">
-        <v>473</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>503</v>
       </c>
       <c r="BC21" s="1">
         <v>0.83400000000000007</v>
@@ -5971,22 +6024,22 @@
         <v>169</v>
       </c>
       <c r="D22" t="s">
+        <v>503</v>
+      </c>
+      <c r="E22" t="s">
+        <v>454</v>
+      </c>
+      <c r="I22" t="s">
+        <v>495</v>
+      </c>
+      <c r="J22" t="s">
         <v>504</v>
       </c>
-      <c r="E22" t="s">
-        <v>455</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>496</v>
       </c>
-      <c r="J22" t="s">
+      <c r="AO22" t="s">
         <v>505</v>
-      </c>
-      <c r="K22" t="s">
-        <v>497</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>506</v>
       </c>
       <c r="BC22" s="1">
         <v>0.83200000000000007</v>
@@ -6006,22 +6059,22 @@
         <v>169</v>
       </c>
       <c r="D23" t="s">
+        <v>506</v>
+      </c>
+      <c r="E23" t="s">
+        <v>454</v>
+      </c>
+      <c r="I23" t="s">
+        <v>504</v>
+      </c>
+      <c r="J23" t="s">
         <v>507</v>
       </c>
-      <c r="E23" t="s">
-        <v>455</v>
-      </c>
-      <c r="I23" t="s">
-        <v>505</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
+        <v>496</v>
+      </c>
+      <c r="AO23" t="s">
         <v>508</v>
-      </c>
-      <c r="K23" t="s">
-        <v>497</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>509</v>
       </c>
       <c r="BC23" s="1">
         <v>0.82700000000000007</v>
@@ -6041,22 +6094,22 @@
         <v>169</v>
       </c>
       <c r="D24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E24" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I24" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO24" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="BC24" s="1">
         <v>0.81700000000000006</v>
@@ -6073,25 +6126,25 @@
         <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
+        <v>510</v>
+      </c>
+      <c r="E25" t="s">
+        <v>454</v>
+      </c>
+      <c r="I25" t="s">
+        <v>495</v>
+      </c>
+      <c r="J25" t="s">
         <v>511</v>
       </c>
-      <c r="E25" t="s">
-        <v>455</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>496</v>
       </c>
-      <c r="J25" t="s">
+      <c r="AO25" t="s">
         <v>512</v>
-      </c>
-      <c r="K25" t="s">
-        <v>497</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>513</v>
       </c>
       <c r="BC25" s="1">
         <v>0.81400000000000006</v>
@@ -6111,22 +6164,22 @@
         <v>169</v>
       </c>
       <c r="D26" t="s">
+        <v>513</v>
+      </c>
+      <c r="E26" t="s">
+        <v>454</v>
+      </c>
+      <c r="I26" t="s">
+        <v>507</v>
+      </c>
+      <c r="J26" t="s">
         <v>514</v>
       </c>
-      <c r="E26" t="s">
-        <v>455</v>
-      </c>
-      <c r="I26" t="s">
-        <v>508</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
+        <v>496</v>
+      </c>
+      <c r="AO26" t="s">
         <v>515</v>
-      </c>
-      <c r="K26" t="s">
-        <v>497</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>516</v>
       </c>
       <c r="BC26" s="1">
         <v>0.80500000000000005</v>
@@ -6143,25 +6196,25 @@
         <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D27" t="s">
+        <v>516</v>
+      </c>
+      <c r="E27" t="s">
+        <v>454</v>
+      </c>
+      <c r="I27" t="s">
+        <v>511</v>
+      </c>
+      <c r="J27" t="s">
+        <v>504</v>
+      </c>
+      <c r="K27" t="s">
         <v>517</v>
       </c>
-      <c r="E27" t="s">
-        <v>455</v>
-      </c>
-      <c r="I27" t="s">
-        <v>512</v>
-      </c>
-      <c r="J27" t="s">
-        <v>505</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="AO27" t="s">
         <v>518</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>519</v>
       </c>
       <c r="BC27" s="1">
         <v>0.79200000000000004</v>
@@ -6181,22 +6234,22 @@
         <v>169</v>
       </c>
       <c r="D28" t="s">
+        <v>519</v>
+      </c>
+      <c r="E28" t="s">
+        <v>454</v>
+      </c>
+      <c r="I28" t="s">
+        <v>514</v>
+      </c>
+      <c r="J28" t="s">
         <v>520</v>
       </c>
-      <c r="E28" t="s">
-        <v>455</v>
-      </c>
-      <c r="I28" t="s">
-        <v>515</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
+        <v>517</v>
+      </c>
+      <c r="AO28" t="s">
         <v>521</v>
-      </c>
-      <c r="K28" t="s">
-        <v>518</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>522</v>
       </c>
       <c r="BC28" s="1">
         <v>0.78099999999999992</v>
@@ -6213,25 +6266,25 @@
         <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D29" t="s">
+        <v>522</v>
+      </c>
+      <c r="E29" t="s">
+        <v>454</v>
+      </c>
+      <c r="I29" t="s">
+        <v>494</v>
+      </c>
+      <c r="J29" t="s">
+        <v>495</v>
+      </c>
+      <c r="K29" t="s">
         <v>523</v>
       </c>
-      <c r="E29" t="s">
-        <v>455</v>
-      </c>
-      <c r="I29" t="s">
-        <v>495</v>
-      </c>
-      <c r="J29" t="s">
-        <v>496</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="AO29" t="s">
         <v>524</v>
-      </c>
-      <c r="AO29" t="s">
-        <v>525</v>
       </c>
       <c r="BC29" s="1">
         <v>0.77900000000000003</v>
@@ -6248,25 +6301,25 @@
         <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D30" t="s">
+        <v>525</v>
+      </c>
+      <c r="E30" t="s">
+        <v>454</v>
+      </c>
+      <c r="I30" t="s">
+        <v>504</v>
+      </c>
+      <c r="J30" t="s">
         <v>526</v>
       </c>
-      <c r="E30" t="s">
-        <v>455</v>
-      </c>
-      <c r="I30" t="s">
-        <v>505</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>527</v>
       </c>
-      <c r="K30" t="s">
+      <c r="AO30" t="s">
         <v>528</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>529</v>
       </c>
       <c r="BC30" s="1">
         <v>0.77099999999999991</v>
@@ -6283,25 +6336,25 @@
         <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D31" t="s">
+        <v>529</v>
+      </c>
+      <c r="E31" t="s">
+        <v>454</v>
+      </c>
+      <c r="I31" t="s">
+        <v>495</v>
+      </c>
+      <c r="J31" t="s">
+        <v>511</v>
+      </c>
+      <c r="K31" t="s">
+        <v>523</v>
+      </c>
+      <c r="AO31" t="s">
         <v>530</v>
-      </c>
-      <c r="E31" t="s">
-        <v>455</v>
-      </c>
-      <c r="I31" t="s">
-        <v>496</v>
-      </c>
-      <c r="J31" t="s">
-        <v>512</v>
-      </c>
-      <c r="K31" t="s">
-        <v>524</v>
-      </c>
-      <c r="AO31" t="s">
-        <v>531</v>
       </c>
       <c r="BC31" s="1">
         <v>0.76900000000000002</v>
@@ -6318,25 +6371,25 @@
         <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D32" t="s">
+        <v>531</v>
+      </c>
+      <c r="E32" t="s">
+        <v>454</v>
+      </c>
+      <c r="I32" t="s">
+        <v>494</v>
+      </c>
+      <c r="J32" t="s">
+        <v>495</v>
+      </c>
+      <c r="K32" t="s">
+        <v>496</v>
+      </c>
+      <c r="AO32" t="s">
         <v>532</v>
-      </c>
-      <c r="E32" t="s">
-        <v>455</v>
-      </c>
-      <c r="I32" t="s">
-        <v>495</v>
-      </c>
-      <c r="J32" t="s">
-        <v>496</v>
-      </c>
-      <c r="K32" t="s">
-        <v>497</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>533</v>
       </c>
       <c r="BC32" s="1">
         <v>0.748</v>
@@ -6353,25 +6406,25 @@
         <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D33" t="s">
+        <v>533</v>
+      </c>
+      <c r="E33" t="s">
+        <v>454</v>
+      </c>
+      <c r="I33" t="s">
         <v>534</v>
       </c>
-      <c r="E33" t="s">
-        <v>455</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>535</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
+        <v>517</v>
+      </c>
+      <c r="AO33" t="s">
         <v>536</v>
-      </c>
-      <c r="K33" t="s">
-        <v>518</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>537</v>
       </c>
       <c r="BC33" s="1">
         <v>0.72900000000000009</v>
@@ -6388,25 +6441,25 @@
         <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D34" t="s">
+        <v>537</v>
+      </c>
+      <c r="E34" t="s">
+        <v>454</v>
+      </c>
+      <c r="I34" t="s">
+        <v>511</v>
+      </c>
+      <c r="J34" t="s">
+        <v>504</v>
+      </c>
+      <c r="K34" t="s">
+        <v>527</v>
+      </c>
+      <c r="AO34" t="s">
         <v>538</v>
-      </c>
-      <c r="E34" t="s">
-        <v>455</v>
-      </c>
-      <c r="I34" t="s">
-        <v>512</v>
-      </c>
-      <c r="J34" t="s">
-        <v>505</v>
-      </c>
-      <c r="K34" t="s">
-        <v>528</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>539</v>
       </c>
       <c r="BC34" s="1">
         <v>0.72299999999999998</v>
@@ -6423,25 +6476,25 @@
         <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D35" t="s">
+        <v>539</v>
+      </c>
+      <c r="E35" t="s">
+        <v>454</v>
+      </c>
+      <c r="I35" t="s">
+        <v>526</v>
+      </c>
+      <c r="J35" t="s">
+        <v>534</v>
+      </c>
+      <c r="K35" t="s">
+        <v>527</v>
+      </c>
+      <c r="AO35" t="s">
         <v>540</v>
-      </c>
-      <c r="E35" t="s">
-        <v>455</v>
-      </c>
-      <c r="I35" t="s">
-        <v>527</v>
-      </c>
-      <c r="J35" t="s">
-        <v>535</v>
-      </c>
-      <c r="K35" t="s">
-        <v>528</v>
-      </c>
-      <c r="AO35" t="s">
-        <v>541</v>
       </c>
       <c r="BC35" s="1">
         <v>0.72</v>
@@ -6458,25 +6511,25 @@
         <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D36" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E36" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J36" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K36" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AO36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="BC36" s="1">
         <v>0.70700000000000007</v>
@@ -6496,22 +6549,22 @@
         <v>169</v>
       </c>
       <c r="D37" t="s">
+        <v>542</v>
+      </c>
+      <c r="E37" t="s">
+        <v>454</v>
+      </c>
+      <c r="I37" t="s">
+        <v>520</v>
+      </c>
+      <c r="J37" t="s">
         <v>543</v>
       </c>
-      <c r="E37" t="s">
-        <v>455</v>
-      </c>
-      <c r="I37" t="s">
-        <v>521</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
+        <v>517</v>
+      </c>
+      <c r="AO37" t="s">
         <v>544</v>
-      </c>
-      <c r="K37" t="s">
-        <v>518</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>545</v>
       </c>
       <c r="BC37" s="1">
         <v>0.69499999999999995</v>
@@ -6528,25 +6581,25 @@
         <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D38" t="s">
+        <v>545</v>
+      </c>
+      <c r="E38" t="s">
+        <v>454</v>
+      </c>
+      <c r="I38" t="s">
+        <v>534</v>
+      </c>
+      <c r="J38" t="s">
+        <v>535</v>
+      </c>
+      <c r="K38" t="s">
+        <v>517</v>
+      </c>
+      <c r="AO38" t="s">
         <v>546</v>
-      </c>
-      <c r="E38" t="s">
-        <v>455</v>
-      </c>
-      <c r="I38" t="s">
-        <v>535</v>
-      </c>
-      <c r="J38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K38" t="s">
-        <v>518</v>
-      </c>
-      <c r="AO38" t="s">
-        <v>547</v>
       </c>
       <c r="BC38" s="1">
         <v>0.59699999999999998</v>
@@ -6563,25 +6616,25 @@
         <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D39" t="s">
+        <v>547</v>
+      </c>
+      <c r="E39" t="s">
+        <v>454</v>
+      </c>
+      <c r="I39" t="s">
+        <v>526</v>
+      </c>
+      <c r="J39" t="s">
+        <v>534</v>
+      </c>
+      <c r="K39" t="s">
+        <v>517</v>
+      </c>
+      <c r="AO39" t="s">
         <v>548</v>
-      </c>
-      <c r="E39" t="s">
-        <v>455</v>
-      </c>
-      <c r="I39" t="s">
-        <v>527</v>
-      </c>
-      <c r="J39" t="s">
-        <v>535</v>
-      </c>
-      <c r="K39" t="s">
-        <v>518</v>
-      </c>
-      <c r="AO39" t="s">
-        <v>549</v>
       </c>
       <c r="BC39" s="1">
         <v>0.59699999999999998</v>
@@ -6598,25 +6651,25 @@
         <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D40" t="s">
+        <v>549</v>
+      </c>
+      <c r="E40" t="s">
+        <v>454</v>
+      </c>
+      <c r="I40" t="s">
+        <v>535</v>
+      </c>
+      <c r="J40" t="s">
         <v>550</v>
       </c>
-      <c r="E40" t="s">
-        <v>455</v>
-      </c>
-      <c r="I40" t="s">
-        <v>536</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
+        <v>517</v>
+      </c>
+      <c r="AO40" t="s">
         <v>551</v>
-      </c>
-      <c r="K40" t="s">
-        <v>518</v>
-      </c>
-      <c r="AO40" t="s">
-        <v>552</v>
       </c>
       <c r="BC40" s="1">
         <v>0.56100000000000005</v>
@@ -6633,25 +6686,25 @@
         <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D41" t="s">
+        <v>552</v>
+      </c>
+      <c r="E41" t="s">
+        <v>454</v>
+      </c>
+      <c r="I41" t="s">
+        <v>480</v>
+      </c>
+      <c r="J41" t="s">
+        <v>494</v>
+      </c>
+      <c r="K41" t="s">
+        <v>496</v>
+      </c>
+      <c r="AO41" t="s">
         <v>553</v>
-      </c>
-      <c r="E41" t="s">
-        <v>455</v>
-      </c>
-      <c r="I41" t="s">
-        <v>481</v>
-      </c>
-      <c r="J41" t="s">
-        <v>495</v>
-      </c>
-      <c r="K41" t="s">
-        <v>497</v>
-      </c>
-      <c r="AO41" t="s">
-        <v>554</v>
       </c>
       <c r="BC41" s="1">
         <v>0.54299999999999993</v>
@@ -6668,25 +6721,25 @@
         <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D42" t="s">
+        <v>554</v>
+      </c>
+      <c r="E42" t="s">
+        <v>454</v>
+      </c>
+      <c r="I42" t="s">
+        <v>535</v>
+      </c>
+      <c r="J42" t="s">
+        <v>550</v>
+      </c>
+      <c r="K42" t="s">
+        <v>517</v>
+      </c>
+      <c r="AO42" t="s">
         <v>555</v>
-      </c>
-      <c r="E42" t="s">
-        <v>455</v>
-      </c>
-      <c r="I42" t="s">
-        <v>536</v>
-      </c>
-      <c r="J42" t="s">
-        <v>551</v>
-      </c>
-      <c r="K42" t="s">
-        <v>518</v>
-      </c>
-      <c r="AO42" t="s">
-        <v>556</v>
       </c>
       <c r="BC42" s="1">
         <v>0.52300000000000002</v>
@@ -6703,25 +6756,25 @@
         <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D43" t="s">
+        <v>556</v>
+      </c>
+      <c r="E43" t="s">
+        <v>454</v>
+      </c>
+      <c r="I43" t="s">
+        <v>550</v>
+      </c>
+      <c r="J43" t="s">
         <v>557</v>
       </c>
-      <c r="E43" t="s">
-        <v>455</v>
-      </c>
-      <c r="I43" t="s">
-        <v>551</v>
-      </c>
-      <c r="J43" t="s">
-        <v>558</v>
-      </c>
       <c r="K43" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AO43" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="BC43" s="1">
         <v>0.49700000000000005</v>
@@ -6738,25 +6791,25 @@
         <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D44" t="s">
+        <v>558</v>
+      </c>
+      <c r="E44" t="s">
+        <v>454</v>
+      </c>
+      <c r="I44" t="s">
+        <v>550</v>
+      </c>
+      <c r="J44" t="s">
+        <v>557</v>
+      </c>
+      <c r="K44" t="s">
+        <v>517</v>
+      </c>
+      <c r="AO44" t="s">
         <v>559</v>
-      </c>
-      <c r="E44" t="s">
-        <v>455</v>
-      </c>
-      <c r="I44" t="s">
-        <v>551</v>
-      </c>
-      <c r="J44" t="s">
-        <v>558</v>
-      </c>
-      <c r="K44" t="s">
-        <v>518</v>
-      </c>
-      <c r="AO44" t="s">
-        <v>560</v>
       </c>
       <c r="BC44" s="1">
         <v>0.33799999999999997</v>
@@ -6782,7 +6835,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6795,79 +6848,79 @@
         <v>83</v>
       </c>
       <c r="D1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E1" t="s">
         <v>561</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>562</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>563</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>564</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>565</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>566</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>567</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>568</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>569</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>570</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>571</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>572</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>573</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>574</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>575</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>576</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>577</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>578</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>579</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>580</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>581</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>582</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>583</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>584</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
@@ -6881,76 +6934,76 @@
         <v>117</v>
       </c>
       <c r="D2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" t="s">
         <v>217</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>218</v>
       </c>
-      <c r="F2" t="s">
-        <v>219</v>
-      </c>
       <c r="G2" t="s">
+        <v>585</v>
+      </c>
+      <c r="H2" t="s">
         <v>586</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>587</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>588</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>589</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>590</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>591</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>230</v>
+      </c>
+      <c r="O2" t="s">
+        <v>231</v>
+      </c>
+      <c r="P2" t="s">
         <v>592</v>
       </c>
-      <c r="N2" t="s">
-        <v>231</v>
-      </c>
-      <c r="O2" t="s">
-        <v>232</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>593</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>594</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>237</v>
+      </c>
+      <c r="U2" t="s">
+        <v>238</v>
+      </c>
+      <c r="V2" t="s">
+        <v>239</v>
+      </c>
+      <c r="W2" t="s">
         <v>595</v>
       </c>
-      <c r="T2" t="s">
-        <v>238</v>
-      </c>
-      <c r="U2" t="s">
-        <v>239</v>
-      </c>
-      <c r="V2" t="s">
-        <v>240</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>596</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>597</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>598</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>599</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>600</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
@@ -6970,34 +7023,34 @@
         <v>159</v>
       </c>
       <c r="H3" t="s">
+        <v>601</v>
+      </c>
+      <c r="L3" t="s">
         <v>602</v>
       </c>
-      <c r="L3" t="s">
-        <v>603</v>
-      </c>
       <c r="M3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N3" t="s">
         <v>156</v>
       </c>
       <c r="R3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="V3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Y3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -7019,7 +7072,7 @@
       <selection activeCell="AI1" sqref="AI1:AK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:73" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7032,214 +7085,214 @@
         <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F1" t="s">
         <v>604</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>605</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>606</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>607</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>608</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>609</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>610</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>611</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>612</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>613</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>614</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>615</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>616</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>617</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>618</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>619</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>620</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>621</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>622</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>623</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>624</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>625</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>626</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>627</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>628</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>629</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>630</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>631</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>632</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="AL1" t="s">
         <v>633</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>993</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>634</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>635</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>636</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>637</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>638</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>639</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>640</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>641</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>642</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>643</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>644</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>645</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>646</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>647</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>648</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>649</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>650</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>651</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>652</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>653</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>654</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>655</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>656</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>657</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>658</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>659</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>660</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>661</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>662</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>663</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>664</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>665</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>666</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>667</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>668</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:73" x14ac:dyDescent="0.3">
@@ -7253,211 +7306,211 @@
         <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E2" t="s">
+        <v>669</v>
+      </c>
+      <c r="F2" t="s">
         <v>670</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>671</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>672</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>673</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>674</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>675</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>676</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>677</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>678</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>679</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>680</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>216</v>
+      </c>
+      <c r="R2" t="s">
+        <v>217</v>
+      </c>
+      <c r="S2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U2" t="s">
         <v>681</v>
       </c>
-      <c r="Q2" t="s">
-        <v>217</v>
-      </c>
-      <c r="R2" t="s">
-        <v>218</v>
-      </c>
-      <c r="S2" t="s">
-        <v>219</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>682</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>683</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>684</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>685</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>686</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>687</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>688</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF2" t="s">
         <v>689</v>
       </c>
-      <c r="AC2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>690</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>691</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>692</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>693</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>694</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>403</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>408</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>409</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>410</v>
+      </c>
+      <c r="AS2" t="s">
         <v>695</v>
       </c>
-      <c r="AL2" t="s">
-        <v>402</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>403</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>404</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>408</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>409</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>410</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>411</v>
-      </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>415</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>416</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>417</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>418</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>419</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>420</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>421</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>423</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>424</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>426</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>427</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>428</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>696</v>
       </c>
-      <c r="AT2" t="s">
-        <v>413</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>414</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>415</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>416</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>417</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>418</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>419</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>420</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>421</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>422</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>423</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>424</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>425</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>427</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>428</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>429</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>697</v>
-      </c>
       <c r="BK2" t="s">
+        <v>430</v>
+      </c>
+      <c r="BL2" t="s">
         <v>431</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>432</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>433</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>434</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>435</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>436</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
         <v>437</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
         <v>438</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
         <v>439</v>
       </c>
-      <c r="BT2" t="s">
-        <v>440</v>
-      </c>
       <c r="BU2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:73" x14ac:dyDescent="0.3">
@@ -7465,19 +7518,19 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
+        <v>697</v>
+      </c>
+      <c r="G3" t="s">
         <v>698</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>699</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>700</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>701</v>
-      </c>
-      <c r="M3" t="s">
-        <v>702</v>
       </c>
       <c r="N3" t="s">
         <v>150</v>
@@ -7510,121 +7563,121 @@
         <v>156</v>
       </c>
       <c r="AA3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AB3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AE3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AL3" t="s">
+        <v>449</v>
+      </c>
+      <c r="AM3" t="s">
         <v>450</v>
       </c>
-      <c r="AM3" t="s">
-        <v>451</v>
-      </c>
       <c r="AN3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AO3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AP3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AQ3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AR3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AT3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AU3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AV3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AW3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AY3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AZ3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="BA3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="BB3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="BD3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="BE3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="BF3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="BG3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BH3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BI3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BJ3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BK3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BL3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BM3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BN3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BO3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BP3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BQ3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BR3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BS3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BT3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BU3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -7644,7 +7697,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7657,85 +7710,85 @@
         <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F1" t="s">
+        <v>703</v>
+      </c>
+      <c r="G1" t="s">
         <v>704</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>705</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>706</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>707</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>708</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>709</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>710</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>711</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>712</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>713</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>714</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>715</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>716</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>717</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>718</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>719</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>720</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>721</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>722</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>723</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>724</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>725</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>726</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>727</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
@@ -7746,79 +7799,79 @@
         <v>61</v>
       </c>
       <c r="C2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2" t="s">
         <v>729</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>730</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>731</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K2" t="s">
         <v>732</v>
       </c>
-      <c r="G2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H2" t="s">
-        <v>217</v>
-      </c>
-      <c r="I2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J2" t="s">
-        <v>219</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>733</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>734</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>735</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>736</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>737</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>738</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>739</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>237</v>
+      </c>
+      <c r="W2" t="s">
+        <v>238</v>
+      </c>
+      <c r="X2" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y2" t="s">
         <v>740</v>
       </c>
-      <c r="V2" t="s">
-        <v>238</v>
-      </c>
-      <c r="W2" t="s">
-        <v>239</v>
-      </c>
-      <c r="X2" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>741</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>742</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>743</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>744</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>745</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
@@ -7835,37 +7888,37 @@
         <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="M3" t="s">
         <v>152</v>
       </c>
       <c r="P3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="Q3" t="s">
         <v>156</v>
       </c>
       <c r="T3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Z3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AA3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -7881,147 +7934,149 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AR21"/>
+  <dimension ref="A1:AS21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B1" t="s">
         <v>749</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>750</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>751</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>752</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>753</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>754</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>755</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>756</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>757</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>758</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>759</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>760</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>761</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>762</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>763</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>764</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>765</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>766</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>767</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>768</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>769</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>770</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>771</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>772</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>773</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>774</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>775</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>776</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>777</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>778</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>779</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>780</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>781</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>782</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>783</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>784</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>785</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>786</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>787</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>788</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>789</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>790</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>791</v>
       </c>
-      <c r="AR1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -8035,849 +8090,888 @@
         <v>111</v>
       </c>
       <c r="E2" t="s">
+        <v>993</v>
+      </c>
+      <c r="F2" t="s">
         <v>95</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>99</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>112</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>104</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>105</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>107</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>87</v>
       </c>
-      <c r="L2" t="s">
-        <v>186</v>
-      </c>
       <c r="M2" t="s">
+        <v>185</v>
+      </c>
+      <c r="N2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O2" t="s">
         <v>188</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>189</v>
       </c>
-      <c r="O2" t="s">
-        <v>190</v>
-      </c>
-      <c r="P2" t="s">
-        <v>192</v>
-      </c>
       <c r="Q2" t="s">
+        <v>191</v>
+      </c>
+      <c r="R2" t="s">
+        <v>193</v>
+      </c>
+      <c r="S2" t="s">
         <v>194</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>195</v>
       </c>
-      <c r="S2" t="s">
-        <v>196</v>
-      </c>
-      <c r="T2" t="s">
-        <v>202</v>
-      </c>
       <c r="U2" t="s">
-        <v>279</v>
+        <v>201</v>
       </c>
       <c r="V2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="W2" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="X2" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="Y2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Z2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AA2" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>792</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>564</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>565</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>566</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>567</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>703</v>
+      </c>
+      <c r="AI2" t="s">
         <v>793</v>
       </c>
-      <c r="AB2" t="s">
-        <v>565</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>566</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>567</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>568</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>574</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>704</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
+        <v>709</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>711</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>713</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>716</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>606</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>610</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>605</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>607</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>612</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
         <v>794</v>
       </c>
-      <c r="AI2" t="s">
-        <v>710</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>712</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>714</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>717</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>607</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>611</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>606</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>608</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>613</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>795</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>796</v>
       </c>
-      <c r="I3" t="s">
+      <c r="V3" t="s">
+        <v>795</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>672</v>
+      </c>
+      <c r="AP3" t="s">
         <v>797</v>
       </c>
-      <c r="U3" t="s">
-        <v>796</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>673</v>
-      </c>
-      <c r="AO3" t="s">
+      <c r="AQ3" t="s">
         <v>798</v>
       </c>
-      <c r="AP3" t="s">
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>800</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>801</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>802</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>994</v>
+      </c>
+      <c r="F4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" t="s">
         <v>803</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
+        <v>804</v>
+      </c>
+      <c r="I4" t="s">
+        <v>805</v>
+      </c>
+      <c r="J4" t="s">
+        <v>806</v>
+      </c>
+      <c r="K4" t="s">
+        <v>807</v>
+      </c>
+      <c r="L4" t="s">
+        <v>170</v>
+      </c>
+      <c r="M4" t="s">
+        <v>808</v>
+      </c>
+      <c r="N4" t="s">
+        <v>809</v>
+      </c>
+      <c r="O4" t="s">
+        <v>810</v>
+      </c>
+      <c r="P4" t="s">
+        <v>811</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>812</v>
+      </c>
+      <c r="R4" t="s">
+        <v>813</v>
+      </c>
+      <c r="S4" t="s">
+        <v>801</v>
+      </c>
+      <c r="T4" t="s">
+        <v>801</v>
+      </c>
+      <c r="U4" t="s">
+        <v>814</v>
+      </c>
+      <c r="V4" t="s">
+        <v>815</v>
+      </c>
+      <c r="W4" t="s">
+        <v>816</v>
+      </c>
+      <c r="X4" t="s">
+        <v>817</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>801</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>801</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>818</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>819</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>820</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>809</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>821</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>812</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>822</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>823</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>810</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>824</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>825</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>826</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>827</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>828</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>829</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>830</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>831</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>801</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>832</v>
+      </c>
+      <c r="B5" t="s">
+        <v>833</v>
+      </c>
+      <c r="D5" t="s">
+        <v>834</v>
+      </c>
+      <c r="E5" t="s">
+        <v>995</v>
+      </c>
+      <c r="F5" t="s">
+        <v>835</v>
+      </c>
+      <c r="G5" t="s">
+        <v>836</v>
+      </c>
+      <c r="H5" t="s">
+        <v>837</v>
+      </c>
+      <c r="I5" t="s">
+        <v>838</v>
+      </c>
+      <c r="J5" t="s">
+        <v>839</v>
+      </c>
+      <c r="K5" t="s">
+        <v>840</v>
+      </c>
+      <c r="L5" t="s">
+        <v>841</v>
+      </c>
+      <c r="M5" t="s">
+        <v>842</v>
+      </c>
+      <c r="N5" t="s">
+        <v>843</v>
+      </c>
+      <c r="O5" t="s">
+        <v>844</v>
+      </c>
+      <c r="P5" t="s">
+        <v>845</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>846</v>
+      </c>
+      <c r="R5" t="s">
+        <v>847</v>
+      </c>
+      <c r="U5" t="s">
+        <v>848</v>
+      </c>
+      <c r="V5" t="s">
+        <v>849</v>
+      </c>
+      <c r="W5" t="s">
+        <v>850</v>
+      </c>
+      <c r="X5" t="s">
+        <v>851</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>852</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>853</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>843</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>854</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>846</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>855</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>856</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>844</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>857</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>858</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>859</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>860</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>861</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>862</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>863</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>864</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>865</v>
+      </c>
+      <c r="B6" t="s">
+        <v>866</v>
+      </c>
+      <c r="D6" t="s">
+        <v>867</v>
+      </c>
+      <c r="E6" t="s">
+        <v>996</v>
+      </c>
+      <c r="F6" t="s">
+        <v>868</v>
+      </c>
+      <c r="G6" t="s">
         <v>172</v>
       </c>
-      <c r="F4" t="s">
-        <v>804</v>
-      </c>
-      <c r="G4" t="s">
-        <v>805</v>
-      </c>
-      <c r="H4" t="s">
-        <v>806</v>
-      </c>
-      <c r="I4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J4" t="s">
-        <v>808</v>
-      </c>
-      <c r="K4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L4" t="s">
-        <v>809</v>
-      </c>
-      <c r="M4" t="s">
-        <v>810</v>
-      </c>
-      <c r="N4" t="s">
-        <v>811</v>
-      </c>
-      <c r="O4" t="s">
-        <v>812</v>
-      </c>
-      <c r="P4" t="s">
-        <v>813</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>814</v>
-      </c>
-      <c r="R4" t="s">
-        <v>802</v>
-      </c>
-      <c r="S4" t="s">
-        <v>802</v>
-      </c>
-      <c r="T4" t="s">
-        <v>815</v>
-      </c>
-      <c r="U4" t="s">
-        <v>816</v>
-      </c>
-      <c r="V4" t="s">
-        <v>817</v>
-      </c>
-      <c r="W4" t="s">
-        <v>818</v>
-      </c>
-      <c r="X4" t="s">
-        <v>802</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>802</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>819</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>820</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>821</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>810</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>822</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>813</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>823</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>824</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>811</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>825</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>826</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>827</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>828</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>829</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>830</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>831</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>832</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>802</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>833</v>
-      </c>
-      <c r="B5" t="s">
-        <v>834</v>
-      </c>
-      <c r="D5" t="s">
-        <v>835</v>
-      </c>
-      <c r="E5" t="s">
-        <v>836</v>
-      </c>
-      <c r="F5" t="s">
-        <v>837</v>
-      </c>
-      <c r="G5" t="s">
-        <v>838</v>
-      </c>
-      <c r="H5" t="s">
-        <v>839</v>
-      </c>
-      <c r="I5" t="s">
-        <v>840</v>
-      </c>
-      <c r="J5" t="s">
-        <v>841</v>
-      </c>
-      <c r="K5" t="s">
-        <v>842</v>
-      </c>
-      <c r="L5" t="s">
-        <v>843</v>
-      </c>
-      <c r="M5" t="s">
-        <v>844</v>
-      </c>
-      <c r="N5" t="s">
-        <v>845</v>
-      </c>
-      <c r="O5" t="s">
-        <v>846</v>
-      </c>
-      <c r="P5" t="s">
-        <v>847</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>848</v>
-      </c>
-      <c r="T5" t="s">
-        <v>849</v>
-      </c>
-      <c r="U5" t="s">
-        <v>850</v>
-      </c>
-      <c r="V5" t="s">
-        <v>851</v>
-      </c>
-      <c r="W5" t="s">
-        <v>852</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>853</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>854</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>844</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>855</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>847</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>856</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>857</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>845</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>858</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>859</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>860</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>861</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>862</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>863</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>864</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>865</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>866</v>
-      </c>
-      <c r="B6" t="s">
-        <v>867</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
+        <v>869</v>
+      </c>
+      <c r="I6" t="s">
+        <v>870</v>
+      </c>
+      <c r="J6" t="s">
+        <v>871</v>
+      </c>
+      <c r="K6" t="s">
+        <v>872</v>
+      </c>
+      <c r="M6" t="s">
+        <v>873</v>
+      </c>
+      <c r="N6" t="s">
+        <v>874</v>
+      </c>
+      <c r="O6" t="s">
+        <v>875</v>
+      </c>
+      <c r="P6" t="s">
+        <v>876</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>877</v>
+      </c>
+      <c r="R6" t="s">
+        <v>602</v>
+      </c>
+      <c r="U6" t="s">
+        <v>878</v>
+      </c>
+      <c r="V6" t="s">
+        <v>879</v>
+      </c>
+      <c r="W6" t="s">
+        <v>880</v>
+      </c>
+      <c r="X6" t="s">
+        <v>881</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>882</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>883</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>874</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>877</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>884</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>885</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>886</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>887</v>
+      </c>
+      <c r="AK6" t="s">
         <v>868</v>
       </c>
-      <c r="E6" t="s">
-        <v>869</v>
-      </c>
-      <c r="F6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" t="s">
-        <v>870</v>
-      </c>
-      <c r="H6" t="s">
-        <v>871</v>
-      </c>
-      <c r="I6" t="s">
-        <v>872</v>
-      </c>
-      <c r="J6" t="s">
-        <v>873</v>
-      </c>
-      <c r="L6" t="s">
-        <v>874</v>
-      </c>
-      <c r="M6" t="s">
-        <v>875</v>
-      </c>
-      <c r="N6" t="s">
-        <v>876</v>
-      </c>
-      <c r="O6" t="s">
-        <v>877</v>
-      </c>
-      <c r="P6" t="s">
-        <v>878</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>603</v>
-      </c>
-      <c r="T6" t="s">
-        <v>879</v>
-      </c>
-      <c r="U6" t="s">
-        <v>880</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="AN6" t="s">
+        <v>888</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>889</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>890</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS6" t="s">
         <v>881</v>
       </c>
-      <c r="W6" t="s">
-        <v>882</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>883</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>884</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>875</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>878</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>885</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>886</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>887</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>888</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>869</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>889</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>890</v>
-      </c>
-      <c r="AO6" t="s">
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>891</v>
       </c>
-      <c r="AP6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>892</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
+        <v>997</v>
+      </c>
+      <c r="G7" t="s">
         <v>893</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>894</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>895</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
         <v>896</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>897</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>898</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>899</v>
       </c>
-      <c r="N7" t="s">
+      <c r="Q7" t="s">
         <v>900</v>
       </c>
-      <c r="P7" t="s">
+      <c r="U7" t="s">
         <v>901</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>902</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>903</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>904</v>
       </c>
-      <c r="W7" t="s">
+      <c r="AD7" t="s">
+        <v>898</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>900</v>
+      </c>
+      <c r="AG7" t="s">
         <v>905</v>
       </c>
-      <c r="AC7" t="s">
-        <v>899</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>901</v>
-      </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>906</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
         <v>907</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AN7" t="s">
         <v>908</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AO7" t="s">
         <v>909</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AP7" t="s">
         <v>910</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AQ7" t="s">
         <v>911</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AS7" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>912</v>
       </c>
-      <c r="AR7" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>913</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
+        <v>998</v>
+      </c>
+      <c r="G8" t="s">
         <v>914</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>915</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>916</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
         <v>917</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>918</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>919</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>920</v>
       </c>
-      <c r="N8" t="s">
+      <c r="Q8" t="s">
         <v>921</v>
       </c>
-      <c r="P8" t="s">
+      <c r="U8" t="s">
         <v>922</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>923</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
         <v>924</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
+        <v>868</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>919</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>921</v>
+      </c>
+      <c r="AH8" t="s">
         <v>925</v>
       </c>
-      <c r="W8" t="s">
-        <v>869</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>920</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>922</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AN8" t="s">
         <v>926</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AO8" t="s">
         <v>927</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AP8" t="s">
         <v>928</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AQ8" t="s">
+        <v>602</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>929</v>
       </c>
-      <c r="AP8" t="s">
-        <v>603</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>930</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
+        <v>999</v>
+      </c>
+      <c r="G9" t="s">
         <v>931</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>932</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>933</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K9" t="s">
         <v>934</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>935</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>936</v>
       </c>
-      <c r="M9" t="s">
+      <c r="Q9" t="s">
         <v>937</v>
       </c>
-      <c r="P9" t="s">
+      <c r="U9" t="s">
         <v>938</v>
       </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
         <v>939</v>
       </c>
-      <c r="U9" t="s">
+      <c r="AF9" t="s">
         <v>940</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AH9" t="s">
+        <v>936</v>
+      </c>
+      <c r="AN9" t="s">
         <v>941</v>
       </c>
-      <c r="AG9" t="s">
-        <v>937</v>
-      </c>
-      <c r="AM9" t="s">
+      <c r="AO9" t="s">
         <v>942</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AP9" t="s">
         <v>943</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AQ9" t="s">
         <v>944</v>
       </c>
-      <c r="AP9" t="s">
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>946</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G10" t="s">
         <v>947</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>948</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>949</v>
       </c>
-      <c r="H10" t="s">
+      <c r="V10" t="s">
         <v>950</v>
       </c>
-      <c r="U10" t="s">
+      <c r="AN10" t="s">
         <v>951</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AO10" t="s">
         <v>952</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AP10" t="s">
         <v>953</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AQ10" t="s">
         <v>954</v>
       </c>
-      <c r="AP10" t="s">
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="E11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G11" t="s">
         <v>956</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>957</v>
       </c>
-      <c r="H11" t="s">
+      <c r="V11" t="s">
         <v>958</v>
       </c>
-      <c r="U11" t="s">
+      <c r="AN11" t="s">
         <v>959</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AO11" t="s">
         <v>960</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AP11" t="s">
+        <v>960</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>961</v>
       </c>
-      <c r="AO11" t="s">
-        <v>961</v>
-      </c>
-      <c r="AP11" t="s">
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I12" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="H12" t="s">
+      <c r="V12" t="s">
         <v>963</v>
       </c>
-      <c r="U12" t="s">
+      <c r="AN12" t="s">
         <v>964</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AO12" t="s">
         <v>965</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AP12" t="s">
         <v>966</v>
       </c>
-      <c r="AO12" t="s">
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="V13" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="U13" t="s">
+      <c r="AN13" t="s">
         <v>968</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AO13" t="s">
         <v>969</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AP13" t="s">
         <v>970</v>
       </c>
-      <c r="AO13" t="s">
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>1004</v>
+      </c>
+      <c r="V14" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="U14" t="s">
+      <c r="AO14" t="s">
         <v>972</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AP14" t="s">
         <v>973</v>
       </c>
-      <c r="AO14" t="s">
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>1005</v>
+      </c>
+      <c r="V15" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="U15" t="s">
+      <c r="AO15" t="s">
         <v>975</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AP15" t="s">
         <v>976</v>
       </c>
-      <c r="AO15" t="s">
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="V16" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="U16" t="s">
+      <c r="AO16" t="s">
         <v>978</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AP16" t="s">
         <v>979</v>
       </c>
-      <c r="AO16" t="s">
+    </row>
+    <row r="17" spans="41:42" x14ac:dyDescent="0.3">
+      <c r="AO17" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="17" spans="40:41" x14ac:dyDescent="0.3">
-      <c r="AN17" t="s">
+      <c r="AP17" t="s">
         <v>981</v>
       </c>
-      <c r="AO17" t="s">
+    </row>
+    <row r="18" spans="41:42" x14ac:dyDescent="0.3">
+      <c r="AO18" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="18" spans="40:41" x14ac:dyDescent="0.3">
-      <c r="AN18" t="s">
+      <c r="AP18" t="s">
         <v>983</v>
       </c>
-      <c r="AO18" t="s">
+    </row>
+    <row r="19" spans="41:42" x14ac:dyDescent="0.3">
+      <c r="AO19" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="19" spans="40:41" x14ac:dyDescent="0.3">
-      <c r="AN19" t="s">
+      <c r="AP19" t="s">
         <v>985</v>
       </c>
-      <c r="AO19" t="s">
+    </row>
+    <row r="20" spans="41:42" x14ac:dyDescent="0.3">
+      <c r="AO20" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="20" spans="40:41" x14ac:dyDescent="0.3">
-      <c r="AN20" t="s">
+      <c r="AP20" t="s">
         <v>987</v>
       </c>
-      <c r="AO20" t="s">
+    </row>
+    <row r="21" spans="41:42" x14ac:dyDescent="0.3">
+      <c r="AO21" t="s">
         <v>988</v>
-      </c>
-    </row>
-    <row r="21" spans="40:41" x14ac:dyDescent="0.3">
-      <c r="AN21" t="s">
-        <v>989</v>
       </c>
     </row>
   </sheetData>
